--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fce8e6af12796691/Faculdade/2º Ano/2º Semestre/IPM/Labs/IPM-Project/Teste com Users/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\OneDrive\Faculdade\2º Ano\2º Semestre\IPM\Labs\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{DABCAB5A-DFE3-42AF-9B37-64B6950A6800}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E325A006-E6EB-4380-8E5C-4B6CA681FD6A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF29A8B7-13B1-4367-B37D-06CCC35C145F}"/>
   </bookViews>
@@ -398,28 +398,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +739,7 @@
   <dimension ref="B1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,50 +757,50 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="17" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="M4" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="6">
         <v>6</v>
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="22">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
@@ -975,7 +975,7 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="22">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
@@ -1004,7 +1004,7 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
@@ -1033,7 +1033,7 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
@@ -1062,7 +1062,7 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
       <c r="C9" s="8"/>
@@ -1091,7 +1091,7 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
       <c r="C10" s="8"/>
@@ -1120,7 +1120,7 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
       <c r="C11" s="8"/>
@@ -1149,7 +1149,7 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="22">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
       <c r="C12" s="8"/>
@@ -1178,7 +1178,7 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
       <c r="C13" s="8"/>
@@ -1207,7 +1207,7 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
       <c r="C14" s="8"/>
@@ -1236,7 +1236,7 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
       <c r="C15" s="8"/>
@@ -1265,7 +1265,7 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
       <c r="C16" s="8"/>
@@ -1294,7 +1294,7 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
@@ -1323,7 +1323,7 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="18">
         <v>15</v>
       </c>
       <c r="C18" s="12"/>

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\OneDrive\Faculdade\2º Ano\2º Semestre\IPM\Labs\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E325A006-E6EB-4380-8E5C-4B6CA681FD6A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{B0BE526B-1D0B-4624-8F9E-C0832A6CB86B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF29A8B7-13B1-4367-B37D-06CCC35C145F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>tempo (s)</t>
+  </si>
+  <si>
+    <t>Adicionar Contacto</t>
+  </si>
+  <si>
+    <t>Ditar</t>
+  </si>
+  <si>
+    <t>Escrever</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>Escrever Mensagem</t>
+  </si>
+  <si>
+    <t>Localizacao</t>
+  </si>
+  <si>
+    <t>Predefinida</t>
   </si>
 </sst>
 </file>
@@ -96,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -347,11 +368,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +491,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E0AD04-6E78-4FD6-9FB0-D1B3C58EFAED}">
-  <dimension ref="B1:Z18"/>
+  <dimension ref="B1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,10 +848,14 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="10" customWidth="1"/>
     <col min="17" max="26" width="4.28515625" customWidth="1"/>
+    <col min="27" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -795,9 +894,20 @@
       <c r="W2" s="20"/>
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -864,11 +974,32 @@
       <c r="Y3" s="14">
         <v>9</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="25">
         <v>10</v>
       </c>
+      <c r="AA3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>1</v>
       </c>
@@ -941,11 +1072,32 @@
       <c r="Y4" s="6">
         <v>7</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="26">
         <v>7</v>
       </c>
+      <c r="AA4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -972,9 +1124,16 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>3</v>
       </c>
@@ -1001,9 +1160,16 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="11"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>4</v>
       </c>
@@ -1030,9 +1196,16 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -1059,9 +1232,16 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <v>6</v>
       </c>
@@ -1088,9 +1268,16 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <v>7</v>
       </c>
@@ -1117,9 +1304,16 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="11"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <v>8</v>
       </c>
@@ -1146,9 +1340,16 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
         <v>9</v>
       </c>
@@ -1175,9 +1376,16 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="11"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <v>10</v>
       </c>
@@ -1204,9 +1412,16 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="11"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
         <v>11</v>
       </c>
@@ -1233,9 +1448,16 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="11"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <v>12</v>
       </c>
@@ -1262,9 +1484,16 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="11"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="17">
         <v>13</v>
       </c>
@@ -1291,9 +1520,16 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <v>14</v>
       </c>
@@ -1320,9 +1556,16 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18">
         <v>15</v>
       </c>
@@ -1349,10 +1592,19 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="3"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\OneDrive\Faculdade\2º Ano\2º Semestre\IPM\Labs\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{B0BE526B-1D0B-4624-8F9E-C0832A6CB86B}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{16960A07-3B3F-4A6D-AF4A-FC1567ADDF91}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF29A8B7-13B1-4367-B37D-06CCC35C145F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Predefinida</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +481,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,34 +511,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E0AD04-6E78-4FD6-9FB0-D1B3C58EFAED}">
   <dimension ref="B1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I39" activeCellId="1" sqref="AG7 I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,61 +862,61 @@
   <sheetData>
     <row r="1" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="19" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="19" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="19" t="s">
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="19" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
@@ -974,7 +980,7 @@
       <c r="Y3" s="14">
         <v>9</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="19">
         <v>10</v>
       </c>
       <c r="AA3" s="13" t="s">
@@ -1072,16 +1078,16 @@
       <c r="Y4" s="6">
         <v>7</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="20">
         <v>7</v>
       </c>
-      <c r="AA4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="31">
+      <c r="AA4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="25">
         <v>0</v>
       </c>
       <c r="AD4" s="5">
@@ -1101,109 +1107,295 @@
       <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="11"/>
+      <c r="C5" s="8">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>12</v>
+      </c>
+      <c r="H5" s="32">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>30</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <v>30</v>
+      </c>
+      <c r="P5" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>9</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10">
+        <v>10</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
+        <v>10</v>
+      </c>
+      <c r="V5" s="10">
+        <v>1</v>
+      </c>
+      <c r="W5" s="10">
+        <v>9</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="11"/>
+      <c r="C6" s="8">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11">
+        <v>28</v>
+      </c>
+      <c r="M6" s="9">
+        <v>8</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>24</v>
+      </c>
+      <c r="P6" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>8</v>
+      </c>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+      <c r="S6" s="10">
+        <v>6</v>
+      </c>
+      <c r="T6" s="10">
+        <v>3</v>
+      </c>
+      <c r="U6" s="10">
+        <v>9</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10">
+        <v>8</v>
+      </c>
+      <c r="X6" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="11"/>
+      <c r="C7" s="8">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>27</v>
+      </c>
+      <c r="H7" s="11">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>15</v>
+      </c>
+      <c r="L7" s="11">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>33</v>
+      </c>
+      <c r="P7" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>8</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>8</v>
+      </c>
+      <c r="T7" s="10">
+        <v>3</v>
+      </c>
+      <c r="U7" s="10">
+        <v>8</v>
+      </c>
+      <c r="V7" s="10">
+        <v>2</v>
+      </c>
+      <c r="W7" s="10">
+        <v>8</v>
+      </c>
+      <c r="X7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
@@ -1232,7 +1424,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="27"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="10"/>
       <c r="AC8" s="11"/>
@@ -1268,7 +1460,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="27"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="11"/>
@@ -1304,7 +1496,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="27"/>
+      <c r="Z10" s="21"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="11"/>
@@ -1340,7 +1532,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="27"/>
+      <c r="Z11" s="21"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="11"/>
@@ -1376,7 +1568,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="27"/>
+      <c r="Z12" s="21"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="11"/>
@@ -1412,7 +1604,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="27"/>
+      <c r="Z13" s="21"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="11"/>
@@ -1448,7 +1640,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="27"/>
+      <c r="Z14" s="21"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="11"/>
@@ -1484,7 +1676,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="27"/>
+      <c r="Z15" s="21"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="11"/>
@@ -1520,7 +1712,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="27"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="11"/>
@@ -1556,7 +1748,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="27"/>
+      <c r="Z17" s="21"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="11"/>
@@ -1592,7 +1784,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="28"/>
+      <c r="Z18" s="22"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="3"/>
@@ -1603,15 +1795,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\OneDrive\Faculdade\2º Ano\2º Semestre\IPM\Labs\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{16960A07-3B3F-4A6D-AF4A-FC1567ADDF91}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{2C86559C-01FF-41B4-A01A-EE27CC562848}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF29A8B7-13B1-4367-B37D-06CCC35C145F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -502,6 +502,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,15 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="B1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I39" activeCellId="1" sqref="AG7 I39"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,61 +862,61 @@
   <sheetData>
     <row r="1" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="26" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="26" t="s">
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="26" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="26" t="s">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
     </row>
     <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="G5" s="10">
         <v>12</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="26">
         <v>10</v>
       </c>
       <c r="I5" s="9">
@@ -1401,37 +1401,99 @@
       <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="11"/>
+      <c r="C8" s="8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>26</v>
+      </c>
+      <c r="L8" s="11">
+        <v>9</v>
+      </c>
+      <c r="M8" s="9">
+        <v>9</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>26</v>
+      </c>
+      <c r="P8" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>10</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10">
+        <v>9</v>
+      </c>
+      <c r="T8" s="10">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10">
+        <v>10</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10">
+        <v>10</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="17">

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\OneDrive\Faculdade\2º Ano\2º Semestre\IPM\Labs\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{2C86559C-01FF-41B4-A01A-EE27CC562848}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="8_{E2C83B34-B1A9-4596-A45C-FF72AE7C86FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{C39579D0-56B3-456E-BE54-449010A6C9B0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF29A8B7-13B1-4367-B37D-06CCC35C145F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -840,7 +840,7 @@
   <dimension ref="B1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="10">
+        <v>28</v>
+      </c>
+      <c r="L6" s="11">
         <v>6</v>
-      </c>
-      <c r="L6" s="11">
-        <v>28</v>
       </c>
       <c r="M6" s="9">
         <v>8</v>
@@ -1499,37 +1499,99 @@
       <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="11"/>
+      <c r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11">
+        <v>7</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>31</v>
+      </c>
+      <c r="L9" s="11">
+        <v>9</v>
+      </c>
+      <c r="M9" s="9">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>38</v>
+      </c>
+      <c r="P9" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>8</v>
+      </c>
+      <c r="R9" s="10">
+        <v>3</v>
+      </c>
+      <c r="S9" s="10">
+        <v>7</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>8</v>
+      </c>
+      <c r="V9" s="10">
+        <v>2</v>
+      </c>
+      <c r="W9" s="10">
+        <v>8</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="17">

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manel Correia\Documents\GitHub\IPM-Project\Teste com Users\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17844E7D-C673-45D7-9058-D18B602B7294}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId3"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -76,21 +85,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,72 +118,91 @@
     </fill>
   </fills>
   <borders count="24">
-    <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -181,6 +212,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -195,6 +227,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -209,6 +242,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -221,6 +255,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -233,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -241,9 +277,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -252,9 +290,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -263,9 +303,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -274,17 +316,22 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -299,6 +346,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -313,6 +361,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -327,6 +376,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -341,17 +391,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -366,1289 +419,2387 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AG1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="4" width="6.0"/>
-    <col customWidth="1" min="5" max="7" width="10.0"/>
-    <col customWidth="1" min="8" max="8" width="9.86"/>
-    <col customWidth="1" min="9" max="16" width="10.0"/>
-    <col customWidth="1" min="17" max="26" width="4.29"/>
-    <col customWidth="1" min="27" max="29" width="8.57"/>
-    <col customWidth="1" min="30" max="33" width="11.43"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="4" width="6" customWidth="1"/>
+    <col min="5" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="16" width="10" customWidth="1"/>
+    <col min="17" max="26" width="4.265625" customWidth="1"/>
+    <col min="27" max="29" width="8.53125" customWidth="1"/>
+    <col min="30" max="33" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="2:33" ht="14.25"/>
+    <row r="2" spans="2:33" ht="14.25">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="2" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="2" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="4"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
     </row>
-    <row r="3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="s">
+    <row r="3" spans="2:33" ht="14.25">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="S3" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="X3" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="AA3" s="7" t="s">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2">
+        <v>6</v>
+      </c>
+      <c r="W3" s="2">
+        <v>7</v>
+      </c>
+      <c r="X3" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="4" spans="2:33" ht="14.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>14.0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>45.0</v>
-      </c>
-      <c r="L4" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>90.0</v>
-      </c>
-      <c r="P4" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="R4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="T4" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="U4" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="W4" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="X4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="AF4" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="AG4" s="15">
-        <v>0.0</v>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="9">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6</v>
+      </c>
+      <c r="O4" s="8">
+        <v>90</v>
+      </c>
+      <c r="P4" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>4</v>
+      </c>
+      <c r="T4" s="11">
+        <v>4</v>
+      </c>
+      <c r="U4" s="11">
+        <v>4</v>
+      </c>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
+        <v>4</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>19.0</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    <row r="5" spans="2:33" ht="14.25">
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14">
         <v>19</v>
       </c>
-      <c r="E5" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>12.0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>30.0</v>
-      </c>
-      <c r="L5" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>30.0</v>
-      </c>
-      <c r="P5" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="S5" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="T5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="U5" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="Y5" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z5" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AB5" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AE5" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AF5" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AG5" s="24">
-        <v>0.0</v>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>12</v>
+      </c>
+      <c r="H5" s="17">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>30</v>
+      </c>
+      <c r="L5" s="18">
+        <v>10</v>
+      </c>
+      <c r="M5" s="15">
+        <v>10</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>30</v>
+      </c>
+      <c r="P5" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>5</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20">
+        <v>5</v>
+      </c>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
+      <c r="U5" s="20">
+        <v>5</v>
+      </c>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+      <c r="W5" s="20">
+        <v>5</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="20">
-        <v>16.0</v>
-      </c>
-      <c r="D6" s="20" t="s">
+    <row r="6" spans="2:33" ht="14.25">
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="22">
-        <v>21.0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>28.0</v>
-      </c>
-      <c r="L6" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="22">
-        <v>24.0</v>
-      </c>
-      <c r="P6" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="R6" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="S6" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="T6" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U6" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V6" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="W6" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X6" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="Y6" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="AB6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AE6" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AF6" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="24">
-        <v>0.0</v>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>21</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>28</v>
+      </c>
+      <c r="L6" s="18">
+        <v>6</v>
+      </c>
+      <c r="M6" s="15">
+        <v>8</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>24</v>
+      </c>
+      <c r="P6" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>4</v>
+      </c>
+      <c r="R6" s="20">
+        <v>2</v>
+      </c>
+      <c r="S6" s="20">
+        <v>3</v>
+      </c>
+      <c r="T6" s="20">
+        <v>2</v>
+      </c>
+      <c r="U6" s="20">
+        <v>5</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
+      <c r="W6" s="20">
+        <v>4</v>
+      </c>
+      <c r="X6" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="19">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>19.0</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    <row r="7" spans="2:33" ht="14.25">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>27.0</v>
-      </c>
-      <c r="H7" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>15.0</v>
-      </c>
-      <c r="L7" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="22">
-        <v>33.0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="R7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S7" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T7" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="U7" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="W7" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X7" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Y7" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AB7" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AG7" s="24">
-        <v>0.0</v>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>27</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8</v>
+      </c>
+      <c r="I7" s="15">
+        <v>10</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>15</v>
+      </c>
+      <c r="L7" s="18">
+        <v>9</v>
+      </c>
+      <c r="M7" s="15">
+        <v>12</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
+        <v>33</v>
+      </c>
+      <c r="P7" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>4</v>
+      </c>
+      <c r="R7" s="20">
+        <v>1</v>
+      </c>
+      <c r="S7" s="20">
+        <v>4</v>
+      </c>
+      <c r="T7" s="20">
+        <v>2</v>
+      </c>
+      <c r="U7" s="20">
+        <v>4</v>
+      </c>
+      <c r="V7" s="20">
+        <v>1</v>
+      </c>
+      <c r="W7" s="20">
+        <v>4</v>
+      </c>
+      <c r="X7" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="19">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>20.0</v>
-      </c>
-      <c r="D8" s="20" t="s">
+    <row r="8" spans="2:33" ht="14.25">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="22">
-        <v>22.0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="M8" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="O8" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="P8" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="R8" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S8" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="T8" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="U8" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V8" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="W8" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X8" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="Y8" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z8" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AC8" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AF8" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="24">
-        <v>0.0</v>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>22</v>
+      </c>
+      <c r="H8" s="18">
+        <v>8</v>
+      </c>
+      <c r="I8" s="15">
+        <v>12</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>26</v>
+      </c>
+      <c r="L8" s="18">
+        <v>9</v>
+      </c>
+      <c r="M8" s="15">
+        <v>9</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>26</v>
+      </c>
+      <c r="P8" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>5</v>
+      </c>
+      <c r="R8" s="20">
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <v>5</v>
+      </c>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="U8" s="20">
+        <v>5</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
+      <c r="W8" s="20">
+        <v>5</v>
+      </c>
+      <c r="X8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="20">
-        <v>21.0</v>
-      </c>
-      <c r="D9" s="20" t="s">
+    <row r="9" spans="2:33" ht="14.25">
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>37.0</v>
-      </c>
-      <c r="H9" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>31.0</v>
-      </c>
-      <c r="L9" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="M9" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="22">
-        <v>38.0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="R9" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="S9" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="T9" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="U9" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V9" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="W9" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="X9" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="Y9" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z9" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AB9" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="AE9" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="AF9" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="24">
-        <v>0.0</v>
+      <c r="E9" s="15">
+        <v>7</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>37</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>10</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>31</v>
+      </c>
+      <c r="L9" s="18">
+        <v>9</v>
+      </c>
+      <c r="M9" s="15">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>38</v>
+      </c>
+      <c r="P9" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>4</v>
+      </c>
+      <c r="R9" s="20">
+        <v>2</v>
+      </c>
+      <c r="S9" s="20">
+        <v>4</v>
+      </c>
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
+      <c r="U9" s="20">
+        <v>4</v>
+      </c>
+      <c r="V9" s="20">
+        <v>1</v>
+      </c>
+      <c r="W9" s="20">
+        <v>4</v>
+      </c>
+      <c r="X9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="29">
-        <v>23.0</v>
-      </c>
-      <c r="D10" s="29" t="s">
+    <row r="10" spans="2:33" ht="14.25">
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="23">
+        <v>23</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>17.0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>10.0</v>
-      </c>
-      <c r="I10" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="J10" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="26">
-        <v>15.0</v>
-      </c>
-      <c r="L10" s="30">
-        <v>9.0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="N10" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="O10" s="26">
-        <v>30.0</v>
-      </c>
-      <c r="P10" s="30">
-        <v>8.0</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="R10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="S10" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="T10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U10" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="W10" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="X10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Y10" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="Z10" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AB10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AC10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="AD10" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AE10" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="AF10" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AG10" s="30">
-        <v>0.0</v>
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>17</v>
+      </c>
+      <c r="H10" s="24">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19">
+        <v>9</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>15</v>
+      </c>
+      <c r="L10" s="24">
+        <v>9</v>
+      </c>
+      <c r="M10" s="19">
+        <v>9</v>
+      </c>
+      <c r="N10" s="20">
+        <v>2</v>
+      </c>
+      <c r="O10" s="20">
+        <v>30</v>
+      </c>
+      <c r="P10" s="24">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>5</v>
+      </c>
+      <c r="R10" s="20">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>5</v>
+      </c>
+      <c r="T10" s="20">
+        <v>1</v>
+      </c>
+      <c r="U10" s="20">
+        <v>5</v>
+      </c>
+      <c r="V10" s="20">
+        <v>1</v>
+      </c>
+      <c r="W10" s="20">
+        <v>5</v>
+      </c>
+      <c r="X10" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="24"/>
+    <row r="11" spans="2:33" ht="14.25">
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>17</v>
+      </c>
+      <c r="H11" s="18">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>27</v>
+      </c>
+      <c r="L11" s="18">
+        <v>10</v>
+      </c>
+      <c r="M11" s="15">
+        <v>12</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16">
+        <v>31</v>
+      </c>
+      <c r="P11" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>10</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1</v>
+      </c>
+      <c r="S11" s="16">
+        <v>9</v>
+      </c>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="U11" s="16">
+        <v>10</v>
+      </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>9</v>
+      </c>
+      <c r="X11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="B12" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="24"/>
+    <row r="12" spans="2:33" ht="14.25">
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>17</v>
+      </c>
+      <c r="H12" s="18">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15">
+        <v>10</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>26</v>
+      </c>
+      <c r="L12" s="18">
+        <v>8</v>
+      </c>
+      <c r="M12" s="15">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>18</v>
+      </c>
+      <c r="P12" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>9</v>
+      </c>
+      <c r="R12" s="16">
+        <v>3</v>
+      </c>
+      <c r="S12" s="16">
+        <v>10</v>
+      </c>
+      <c r="T12" s="16">
+        <v>2</v>
+      </c>
+      <c r="U12" s="16">
+        <v>10</v>
+      </c>
+      <c r="V12" s="16">
+        <v>1</v>
+      </c>
+      <c r="W12" s="16">
+        <v>8</v>
+      </c>
+      <c r="X12" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="B13" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="24"/>
+    <row r="13" spans="2:33" ht="14.25">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>19</v>
+      </c>
+      <c r="H13" s="18">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>18</v>
+      </c>
+      <c r="L13" s="18">
+        <v>9</v>
+      </c>
+      <c r="M13" s="15">
+        <v>14</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1</v>
+      </c>
+      <c r="O13" s="16">
+        <v>67</v>
+      </c>
+      <c r="P13" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>10</v>
+      </c>
+      <c r="R13" s="16">
+        <v>2</v>
+      </c>
+      <c r="S13" s="16">
+        <v>9</v>
+      </c>
+      <c r="T13" s="16">
+        <v>1</v>
+      </c>
+      <c r="U13" s="16">
+        <v>8</v>
+      </c>
+      <c r="V13" s="16">
+        <v>1</v>
+      </c>
+      <c r="W13" s="16">
+        <v>9</v>
+      </c>
+      <c r="X13" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="B14" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="24"/>
+    <row r="14" spans="2:33" ht="14.25">
+      <c r="B14" s="13">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>17</v>
+      </c>
+      <c r="H14" s="18">
+        <v>9</v>
+      </c>
+      <c r="I14" s="15">
+        <v>11</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>22</v>
+      </c>
+      <c r="L14" s="18">
+        <v>8</v>
+      </c>
+      <c r="M14" s="15">
+        <v>11</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>31</v>
+      </c>
+      <c r="P14" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>9</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="S14" s="16">
+        <v>8</v>
+      </c>
+      <c r="T14" s="16">
+        <v>1</v>
+      </c>
+      <c r="U14" s="16">
+        <v>9</v>
+      </c>
+      <c r="V14" s="16">
+        <v>2</v>
+      </c>
+      <c r="W14" s="16">
+        <v>9</v>
+      </c>
+      <c r="X14" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="B15" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="24"/>
+    <row r="15" spans="2:33" ht="14.25">
+      <c r="B15" s="13">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>16</v>
+      </c>
+      <c r="H15" s="18">
+        <v>8</v>
+      </c>
+      <c r="I15" s="15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>34</v>
+      </c>
+      <c r="L15" s="18">
+        <v>10</v>
+      </c>
+      <c r="M15" s="15">
+        <v>8</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>29</v>
+      </c>
+      <c r="P15" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>10</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1</v>
+      </c>
+      <c r="S15" s="16">
+        <v>9</v>
+      </c>
+      <c r="T15" s="16">
+        <v>1</v>
+      </c>
+      <c r="U15" s="16">
+        <v>9</v>
+      </c>
+      <c r="V15" s="16">
+        <v>1</v>
+      </c>
+      <c r="W15" s="16">
+        <v>9</v>
+      </c>
+      <c r="X15" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="B16" s="19">
-        <v>13.0</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="24"/>
+    <row r="16" spans="2:33" ht="14.25">
+      <c r="B16" s="13">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14">
+        <v>19</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>19</v>
+      </c>
+      <c r="H16" s="18">
+        <v>8</v>
+      </c>
+      <c r="I16" s="15">
+        <v>10</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>22</v>
+      </c>
+      <c r="L16" s="18">
+        <v>10</v>
+      </c>
+      <c r="M16" s="15">
+        <v>10</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>36</v>
+      </c>
+      <c r="P16" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>10</v>
+      </c>
+      <c r="R16" s="16">
+        <v>2</v>
+      </c>
+      <c r="S16" s="16">
+        <v>9</v>
+      </c>
+      <c r="T16" s="16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="16">
+        <v>10</v>
+      </c>
+      <c r="V16" s="16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="16">
+        <v>9</v>
+      </c>
+      <c r="X16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="B17" s="19">
-        <v>14.0</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="24"/>
+    <row r="17" spans="2:33" ht="14.25">
+      <c r="B17" s="13">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14">
+        <v>19</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>15</v>
+      </c>
+      <c r="H17" s="18">
+        <v>10</v>
+      </c>
+      <c r="I17" s="15">
+        <v>10</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>19</v>
+      </c>
+      <c r="L17" s="18">
+        <v>10</v>
+      </c>
+      <c r="M17" s="15">
+        <v>8</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>22</v>
+      </c>
+      <c r="P17" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>10</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1</v>
+      </c>
+      <c r="S17" s="16">
+        <v>10</v>
+      </c>
+      <c r="T17" s="16">
+        <v>2</v>
+      </c>
+      <c r="U17" s="16">
+        <v>10</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16">
+        <v>9</v>
+      </c>
+      <c r="X17" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="B18" s="31">
-        <v>15.0</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="35"/>
+    <row r="18" spans="2:33" ht="14.25">
+      <c r="B18" s="13">
+        <v>15</v>
+      </c>
+      <c r="C18" s="23">
+        <v>19</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>19</v>
+      </c>
+      <c r="H18" s="24">
+        <v>10</v>
+      </c>
+      <c r="I18" s="19">
+        <v>13</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>26</v>
+      </c>
+      <c r="L18" s="24">
+        <v>9</v>
+      </c>
+      <c r="M18" s="19">
+        <v>14</v>
+      </c>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
+      <c r="O18" s="20">
+        <v>25</v>
+      </c>
+      <c r="P18" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>10</v>
+      </c>
+      <c r="R18" s="20">
+        <v>1</v>
+      </c>
+      <c r="S18" s="20">
+        <v>10</v>
+      </c>
+      <c r="T18" s="20">
+        <v>1</v>
+      </c>
+      <c r="U18" s="20">
+        <v>10</v>
+      </c>
+      <c r="V18" s="20">
+        <v>1</v>
+      </c>
+      <c r="W18" s="20">
+        <v>10</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="19" spans="2:33" ht="14.25">
+      <c r="B19" s="13">
+        <v>16</v>
+      </c>
+      <c r="C19" s="23">
+        <v>19</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>15</v>
+      </c>
+      <c r="H19" s="24">
+        <v>9</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <v>30</v>
+      </c>
+      <c r="L19" s="24">
+        <v>10</v>
+      </c>
+      <c r="M19" s="19">
+        <v>9</v>
+      </c>
+      <c r="N19" s="20">
+        <v>2</v>
+      </c>
+      <c r="O19" s="20">
+        <v>37</v>
+      </c>
+      <c r="P19" s="24">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>8</v>
+      </c>
+      <c r="R19" s="20">
+        <v>2</v>
+      </c>
+      <c r="S19" s="20">
+        <v>8</v>
+      </c>
+      <c r="T19" s="20">
+        <v>1</v>
+      </c>
+      <c r="U19" s="20">
+        <v>10</v>
+      </c>
+      <c r="V19" s="20">
+        <v>1</v>
+      </c>
+      <c r="W19" s="20">
+        <v>10</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="14.25">
+      <c r="B20" s="13">
+        <v>17</v>
+      </c>
+      <c r="C20" s="23">
+        <v>20</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>9</v>
+      </c>
+      <c r="H20" s="24">
+        <v>10</v>
+      </c>
+      <c r="I20" s="19">
+        <v>10</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="24">
+        <v>10</v>
+      </c>
+      <c r="M20" s="19">
+        <v>9</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <v>23</v>
+      </c>
+      <c r="P20" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>10</v>
+      </c>
+      <c r="R20" s="20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="20">
+        <v>10</v>
+      </c>
+      <c r="T20" s="20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="20">
+        <v>10</v>
+      </c>
+      <c r="V20" s="20">
+        <v>1</v>
+      </c>
+      <c r="W20" s="20">
+        <v>10</v>
+      </c>
+      <c r="X20" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="14.25">
+      <c r="B21" s="13">
+        <v>18</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="24"/>
+    </row>
+    <row r="22" spans="2:33" ht="14.25">
+      <c r="B22" s="13">
+        <v>19</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="24"/>
+    </row>
+    <row r="23" spans="2:33" ht="14.65" thickBot="1">
+      <c r="B23" s="25">
+        <v>20</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="29"/>
+    </row>
+    <row r="24" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:33" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2619,6 +3770,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2626,12 +3779,8 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manel Correia\Documents\GitHub\IPM-Project\Teste com Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmbni\OneDrive\Documents\GitHub\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17844E7D-C673-45D7-9058-D18B602B7294}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{17844E7D-C673-45D7-9058-D18B602B7294}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F4C21B98-ACC3-4CD1-92B5-D663DCBF7F18}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>User</t>
   </si>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2687,109 +2687,295 @@
       <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="24"/>
+      <c r="C21" s="23">
+        <v>21</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="19">
+        <v>5</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>16</v>
+      </c>
+      <c r="H21" s="24">
+        <v>10</v>
+      </c>
+      <c r="I21" s="19">
+        <v>9</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <v>31</v>
+      </c>
+      <c r="L21" s="24">
+        <v>8</v>
+      </c>
+      <c r="M21" s="19">
+        <v>10</v>
+      </c>
+      <c r="N21" s="20">
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <v>26</v>
+      </c>
+      <c r="P21" s="24">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>9</v>
+      </c>
+      <c r="R21" s="20">
+        <v>1</v>
+      </c>
+      <c r="S21" s="20">
+        <v>10</v>
+      </c>
+      <c r="T21" s="20">
+        <v>1</v>
+      </c>
+      <c r="U21" s="20">
+        <v>10</v>
+      </c>
+      <c r="V21" s="20">
+        <v>1</v>
+      </c>
+      <c r="W21" s="20">
+        <v>9</v>
+      </c>
+      <c r="X21" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="20">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:33" ht="14.25">
       <c r="B22" s="13">
         <v>19</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="24"/>
+      <c r="C22" s="23">
+        <v>22</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>11</v>
+      </c>
+      <c r="H22" s="24">
+        <v>8</v>
+      </c>
+      <c r="I22" s="19">
+        <v>11</v>
+      </c>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20">
+        <v>30</v>
+      </c>
+      <c r="L22" s="24">
+        <v>8</v>
+      </c>
+      <c r="M22" s="19">
+        <v>14</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>25</v>
+      </c>
+      <c r="P22" s="24">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>7</v>
+      </c>
+      <c r="R22" s="20">
+        <v>3</v>
+      </c>
+      <c r="S22" s="20">
+        <v>8</v>
+      </c>
+      <c r="T22" s="20">
+        <v>1</v>
+      </c>
+      <c r="U22" s="20">
+        <v>8</v>
+      </c>
+      <c r="V22" s="20">
+        <v>2</v>
+      </c>
+      <c r="W22" s="20">
+        <v>8</v>
+      </c>
+      <c r="X22" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:33" ht="14.65" thickBot="1">
       <c r="B23" s="25">
         <v>20</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="29"/>
+      <c r="C23" s="26">
+        <v>20</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="27">
+        <v>6</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>13</v>
+      </c>
+      <c r="H23" s="29">
+        <v>9</v>
+      </c>
+      <c r="I23" s="27">
+        <v>9</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <v>25</v>
+      </c>
+      <c r="L23" s="29">
+        <v>8</v>
+      </c>
+      <c r="M23" s="27">
+        <v>8</v>
+      </c>
+      <c r="N23" s="28">
+        <v>0</v>
+      </c>
+      <c r="O23" s="28">
+        <v>26</v>
+      </c>
+      <c r="P23" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>6</v>
+      </c>
+      <c r="R23" s="28">
+        <v>1</v>
+      </c>
+      <c r="S23" s="28">
+        <v>8</v>
+      </c>
+      <c r="T23" s="28">
+        <v>1</v>
+      </c>
+      <c r="U23" s="28">
+        <v>9</v>
+      </c>
+      <c r="V23" s="28">
+        <v>1</v>
+      </c>
+      <c r="W23" s="28">
+        <v>9</v>
+      </c>
+      <c r="X23" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:33" ht="15.75" customHeight="1"/>
     <row r="25" spans="2:33" ht="15.75" customHeight="1"/>
@@ -3770,15 +3956,15 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/Teste com Users/Dados dos testes.xlsx
+++ b/Teste com Users/Dados dos testes.xlsx
@@ -5,22 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmbni\OneDrive\Documents\GitHub\IPM-Project\Teste com Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manel Correia\Documents\GitHub\IPM-Project\Teste com Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{17844E7D-C673-45D7-9058-D18B602B7294}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{F4C21B98-ACC3-4CD1-92B5-D663DCBF7F18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4485274-2AC9-4DAE-9315-02C0DC8F6F86}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Folha1!$B$4:$B$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Folha1!$E$4:$E$23</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>User</t>
   </si>
@@ -80,6 +84,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>media:</t>
   </si>
 </sst>
 </file>
@@ -530,16 +537,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,6 +562,6916 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 1 - Nº Cliques</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAE1-48FE-B459-E26BFF4E0341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458707168"/>
+        <c:axId val="458704544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458707168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458704544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458704544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº de Cliques</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458707168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 1 - Intervalo de Tempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$G$4:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC00-43A0-8B44-5064AF9484F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540583800"/>
+        <c:axId val="540584784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540583800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do Utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540584784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540584784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540583800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 2 - Nº de Cliques</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$4:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F93F-41CD-8E91-7BDA3DE586AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="470866864"/>
+        <c:axId val="470867520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="470866864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do Utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470867520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470867520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº de Cliques</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470866864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 2 - Intervalo de Tempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$K$4:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0C5-49EC-A331-B81FE1F02080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458705200"/>
+        <c:axId val="458707168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458705200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do Utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458707168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458707168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458705200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 3 - Nº Cliques</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$4:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E44A-4B7E-B009-7F623D477DCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458705200"/>
+        <c:axId val="458705528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458705200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do Utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458705528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458705528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº de Cliques</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458705200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tarefa 3 - Intervalo de Tempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$O$4:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00A9-42D6-B565-097F24C50986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540612992"/>
+        <c:axId val="540604792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540612992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Nº do Utilizador</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540604792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540604792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540612992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>197643</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431005</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D979B3C-3F0E-41A3-BE4B-654DCBD0185E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645317</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>216692</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>54767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19072E7-D2C5-4B5B-9E5E-5BF02BF60D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50005</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>35717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6B8585-9FDC-420E-A980-8486E7AFA69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297655</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1635FFF-39B4-4F26-9770-EFC64A4E73F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26193</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>173830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC59BBF-16BA-4B88-AC51-601E8E7155C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>78580</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>364330</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6344E5A9-A4A7-4A36-8CC0-DEE07A7254AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,8 +7773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -874,61 +7791,61 @@
   <sheetData>
     <row r="1" spans="2:33" ht="14.25"/>
     <row r="2" spans="2:33" ht="14.25">
-      <c r="B2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="31" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="31" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="31" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
     </row>
     <row r="3" spans="2:33" ht="14.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2978,7 +9895,35 @@
       </c>
     </row>
     <row r="24" spans="2:33" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:33" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:33" ht="15.75" customHeight="1">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E4:E23)</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(G4:G23)</f>
+        <v>18.3</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(I4:I23)</f>
+        <v>10.6</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K4:K23)</f>
+        <v>25.95</v>
+      </c>
+      <c r="M25">
+        <f>AVERAGE(M4:M23)</f>
+        <v>10.65</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(O4:O23)</f>
+        <v>33.35</v>
+      </c>
+    </row>
     <row r="26" spans="2:33" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:33" ht="15.75" customHeight="1"/>
     <row r="28" spans="2:33" ht="15.75" customHeight="1"/>
@@ -3968,5 +10913,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>